--- a/Data/Excel/Proto/Schedule.xlsx
+++ b/Data/Excel/Proto/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF569B-F076-4E93-8E6E-320F1191FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CB10CD-01D7-4D41-B8EE-F6205CC3EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="4185" windowWidth="21570" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ConentEndTime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ActiveStartTime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
   </si>
   <si>
     <t>DateTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentEndTime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1033,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,21 +1056,21 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/Data/Excel/Proto/Schedule.xlsx
+++ b/Data/Excel/Proto/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CB10CD-01D7-4D41-B8EE-F6205CC3EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39EB15-2A6E-4E84-8D4B-045984C394BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="22980" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Num</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1000001</v>
+        <v>1001001</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1093,6 +1093,46 @@
         <v>45736.999988425923</v>
       </c>
       <c r="F4" s="1">
+        <v>45736.999988425923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1002001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45736.999988425923</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45736.999988425923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1002002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45736.999988425923</v>
+      </c>
+      <c r="F6" s="1">
         <v>45736.999988425923</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Schedule.xlsx
+++ b/Data/Excel/Proto/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39EB15-2A6E-4E84-8D4B-045984C394BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AFCB8-2DD0-4851-BAF8-A79E8ABECD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="22980" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1090,10 +1090,10 @@
         <v>45658</v>
       </c>
       <c r="E4" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
       <c r="F4" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>45658</v>
       </c>
       <c r="E5" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
       <c r="F5" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>45658</v>
       </c>
       <c r="E6" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
       <c r="F6" s="1">
-        <v>45736.999988425923</v>
+        <v>46101.999988425923</v>
       </c>
     </row>
   </sheetData>
